--- a/Tables and Calculations for Final Report.xlsx
+++ b/Tables and Calculations for Final Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cbba6bb91481d9cf/Classes/CHEM E 485/Pontes_Ramos_Gao_Carpenter_485Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{5AC1B1B3-C8EC-43E5-9BAA-48964CF11AB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{162446F8-4A21-4332-8180-10D28769DC00}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{5AC1B1B3-C8EC-43E5-9BAA-48964CF11AB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{34283CB2-E47A-47C5-984E-A0387DFC208C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{6F586CE1-B146-4EEE-B671-C5DD4E8C1978}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{6F586CE1-B146-4EEE-B671-C5DD4E8C1978}"/>
   </bookViews>
   <sheets>
     <sheet name="ASPEN" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="282">
   <si>
     <t>Stream</t>
   </si>
@@ -488,18 +488,12 @@
     <t>https://www.intratec.us/chemical-markets/cumene-price</t>
   </si>
   <si>
-    <t>Cost ($/kg)</t>
-  </si>
-  <si>
     <t>Flow Rate (kg/hr)</t>
   </si>
   <si>
     <t>Annual Cost ($/yr)</t>
   </si>
   <si>
-    <t>Cost Date</t>
-  </si>
-  <si>
     <t>Raw Material</t>
   </si>
   <si>
@@ -509,9 +503,6 @@
     <t>Product</t>
   </si>
   <si>
-    <t>icis.com</t>
-  </si>
-  <si>
     <t>businessinsider.com</t>
   </si>
   <si>
@@ -888,6 +879,30 @@
   </si>
   <si>
     <t>Rounded Value</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>Chemical Price ($/kg)</t>
+  </si>
+  <si>
+    <t>Chemical Price Date</t>
+  </si>
+  <si>
+    <t>Chemical Price Reference</t>
   </si>
 </sst>
 </file>
@@ -1267,11 +1282,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -6823,7 +6838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681EE14B-AAEE-44D4-98AC-041B37D026DF}">
   <dimension ref="B2:Q13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -8273,7 +8288,7 @@
         <f t="shared" si="0"/>
         <v>4183000</v>
       </c>
-      <c r="I26" s="78">
+      <c r="I26" s="77">
         <f t="shared" si="0"/>
         <v>5883000</v>
       </c>
@@ -8541,10 +8556,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9303DC8D-0081-4799-AC27-2224FD31F1A0}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8553,7 +8568,7 @@
     <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.109375" customWidth="1"/>
     <col min="10" max="10" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5546875" customWidth="1"/>
@@ -8633,7 +8648,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E5" s="53">
         <v>0.23597528175100091</v>
@@ -8651,10 +8666,10 @@
       </c>
       <c r="I5" s="39"/>
       <c r="J5" s="51" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K5" s="51" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -8853,7 +8868,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -8882,7 +8897,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -8914,30 +8929,30 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L19" s="50"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C20" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" t="s">
         <v>269</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F20" t="s">
         <v>270</v>
       </c>
-      <c r="D20" t="s">
-        <v>271</v>
-      </c>
-      <c r="E20" t="s">
-        <v>272</v>
-      </c>
-      <c r="F20" t="s">
-        <v>273</v>
-      </c>
       <c r="L20" s="50"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B21" s="71">
         <v>9.5000000000000001E-2</v>
@@ -8958,16 +8973,16 @@
       </c>
       <c r="L21" s="50"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L22" s="50"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L23" s="50"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L24" s="50"/>
     </row>
-    <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="24" t="s">
         <v>111</v>
       </c>
@@ -8975,154 +8990,164 @@
         <v>118</v>
       </c>
       <c r="D25" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="G25" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="H25" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="25" t="s">
+      <c r="J25" t="s">
         <v>146</v>
       </c>
-      <c r="H25" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="I25" s="28"/>
       <c r="K25" s="51"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="51"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B26" s="21" t="s">
         <v>122</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="55">
+        <v>145</v>
+      </c>
+      <c r="D26" s="56">
+        <v>43892</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="F26" s="55">
         <v>0.76700000000000002</v>
       </c>
-      <c r="E26" s="74">
+      <c r="G26" s="74">
         <v>8201.5499999999993</v>
       </c>
-      <c r="F26" s="28">
+      <c r="H26" s="29">
         <f>MROUND(G4,1000)</f>
         <v>52350000</v>
       </c>
-      <c r="G26" s="56">
-        <v>43892</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="I26" s="28"/>
-      <c r="K26" s="51"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
+        <v>272</v>
+      </c>
+      <c r="K26" s="41">
+        <f>SUM(H26:H27)</f>
+        <v>61483000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C27" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="D27" s="55">
+        <v>145</v>
+      </c>
+      <c r="D27" s="73">
+        <v>2020</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="F27" s="55">
         <v>0.23597528175100091</v>
       </c>
-      <c r="E27" s="74">
+      <c r="G27" s="74">
         <v>4650.8069999999998</v>
       </c>
-      <c r="F27" s="28">
-        <f t="shared" ref="F27:F30" si="4">MROUND(G5,1000)</f>
+      <c r="H27" s="29">
+        <f>MROUND(G5,1000)</f>
         <v>9133000</v>
       </c>
-      <c r="G27" s="73">
-        <v>2020</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="I27" s="28"/>
-      <c r="K27" s="41">
-        <f>SUM(F26:F27)</f>
-        <v>61483000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B28" s="21" t="s">
         <v>129</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="D28" s="55">
+        <v>147</v>
+      </c>
+      <c r="D28" s="56">
+        <v>43748</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="F28" s="55">
         <v>1.1240000000000001</v>
       </c>
-      <c r="E28" s="74">
+      <c r="G28" s="74">
         <v>11756.14</v>
       </c>
-      <c r="F28" s="28">
-        <f t="shared" si="4"/>
+      <c r="H28" s="29">
+        <f>MROUND(G6,1000)</f>
         <v>109966000</v>
       </c>
-      <c r="G28" s="56">
-        <v>43748</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="I28" s="28"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B29" s="21" t="s">
         <v>132</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" s="55">
+        <v>147</v>
+      </c>
+      <c r="D29" s="56">
+        <v>43892</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="F29" s="55">
         <v>8.3789999999999989E-2</v>
       </c>
-      <c r="E29" s="74">
+      <c r="G29" s="74">
         <v>872.59</v>
       </c>
-      <c r="F29" s="28">
-        <f t="shared" si="4"/>
+      <c r="H29" s="29">
+        <f>MROUND(G7,1000)</f>
         <v>608000</v>
       </c>
-      <c r="G29" s="56">
-        <v>43892</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="I29" s="28"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>148</v>
+      </c>
+      <c r="K29" s="41">
+        <f>SUM(H28:H30)</f>
+        <v>111116000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B30" s="22" t="s">
         <v>134</v>
       </c>
       <c r="C30" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" s="58">
+        <v>147</v>
+      </c>
+      <c r="D30" s="60">
+        <v>43892</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>278</v>
+      </c>
+      <c r="F30" s="58">
         <v>0.40655555555555561</v>
       </c>
-      <c r="E30" s="75">
+      <c r="G30" s="75">
         <v>160.16800000000001</v>
       </c>
-      <c r="F30" s="59">
-        <f t="shared" si="4"/>
+      <c r="H30" s="47">
+        <f>MROUND(G8,1000)</f>
         <v>542000</v>
-      </c>
-      <c r="G30" s="60">
-        <v>43892</v>
-      </c>
-      <c r="H30" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="K30" s="41">
-        <f>SUM(F28:F30)</f>
-        <v>111116000</v>
       </c>
     </row>
   </sheetData>
@@ -9174,33 +9199,33 @@
         <v>93</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="77" t="s">
-        <v>155</v>
-      </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
+      <c r="H2" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C3" s="39">
         <v>5000000</v>
@@ -9210,30 +9235,30 @@
         <v>5000000</v>
       </c>
       <c r="E3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C4" s="39">
         <v>5882600</v>
@@ -9243,10 +9268,10 @@
         <v>5883000</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -9256,7 +9281,7 @@
         <v>-17702619.145574287</v>
       </c>
       <c r="J4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K4" s="52">
         <f>I4/1000000</f>
@@ -9265,10 +9290,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C5" s="39">
         <v>5210000</v>
@@ -9278,10 +9303,10 @@
         <v>5210000</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -9291,7 +9316,7 @@
         <v>25747464.22296983</v>
       </c>
       <c r="J5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K5" s="52">
         <f t="shared" ref="K5:K14" si="1">I5/1000000</f>
@@ -9300,10 +9325,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C6" s="39">
         <v>61483471.455742851</v>
@@ -9313,10 +9338,10 @@
         <v>61483000</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -9326,7 +9351,7 @@
         <v>25747464.22296983</v>
       </c>
       <c r="J6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K6" s="52">
         <f t="shared" si="1"/>
@@ -9335,10 +9360,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C7" s="39">
         <v>834120</v>
@@ -9348,10 +9373,10 @@
         <v>834000</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -9361,7 +9386,7 @@
         <v>25747464.22296983</v>
       </c>
       <c r="J7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K7" s="52">
         <f t="shared" si="1"/>
@@ -9370,10 +9395,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C8" s="39">
         <f>0.1*(C6+C7+C4)</f>
@@ -9384,10 +9409,10 @@
         <v>6820000</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -9397,7 +9422,7 @@
         <v>25747464.22296983</v>
       </c>
       <c r="J8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K8" s="52">
         <f t="shared" si="1"/>
@@ -9406,10 +9431,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C9" s="41">
         <f>C4+C8+C3</f>
@@ -9420,10 +9445,10 @@
         <v>17703000</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -9433,7 +9458,7 @@
         <v>25747464.22296983</v>
       </c>
       <c r="J9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K9" s="52">
         <f t="shared" si="1"/>
@@ -9442,10 +9467,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C10" s="39">
         <v>111116449.71353354</v>
@@ -9455,10 +9480,10 @@
         <v>111116000</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H10">
         <v>6</v>
@@ -9468,7 +9493,7 @@
         <v>25747464.22296983</v>
       </c>
       <c r="J10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K10" s="52">
         <f t="shared" si="1"/>
@@ -9477,10 +9502,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C11" s="39">
         <v>500000</v>
@@ -9490,10 +9515,10 @@
         <v>500000</v>
       </c>
       <c r="E11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H11">
         <v>7</v>
@@ -9503,7 +9528,7 @@
         <v>25747464.22296983</v>
       </c>
       <c r="J11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K11" s="52">
         <f t="shared" si="1"/>
@@ -9512,10 +9537,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C12" s="40">
         <v>8322</v>
@@ -9525,10 +9550,10 @@
         <v>8000</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H12">
         <v>8</v>
@@ -9538,7 +9563,7 @@
         <v>25747464.22296983</v>
       </c>
       <c r="J12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K12" s="52">
         <f t="shared" si="1"/>
@@ -9547,10 +9572,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C13" s="39">
         <f>0.18*C4+2.73*C7+1.23*(C5+C6)</f>
@@ -9561,10 +9586,10 @@
         <v>85369000</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H13">
         <v>9</v>
@@ -9574,7 +9599,7 @@
         <v>25747464.22296983</v>
       </c>
       <c r="J13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K13" s="52">
         <f t="shared" si="1"/>
@@ -9583,10 +9608,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C14" s="34">
         <v>0.09</v>
@@ -9596,10 +9621,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -9609,7 +9634,7 @@
         <v>31247464.22296983</v>
       </c>
       <c r="J14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K14" s="52">
         <f t="shared" si="1"/>
@@ -9618,10 +9643,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C15" s="34">
         <v>0.35</v>
@@ -9631,15 +9656,15 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
@@ -9649,18 +9674,18 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C17" s="2">
         <v>10</v>
@@ -9670,21 +9695,21 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C18" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D18" s="39" t="e">
         <f t="shared" si="0"/>
@@ -9693,57 +9718,57 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" t="s">
         <v>209</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
         <v>210</v>
-      </c>
-      <c r="F20" t="s">
-        <v>211</v>
-      </c>
-      <c r="G20" t="s">
-        <v>212</v>
-      </c>
-      <c r="H20" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B21" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="E21" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="F21" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="G21" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="H21" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="I21" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="J21" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="K21" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="I21" s="35" t="s">
+      <c r="L21" s="35" t="s">
         <v>221</v>
-      </c>
-      <c r="J21" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="K21" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="L21" s="35" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -10275,13 +10300,13 @@
     </row>
     <row r="34" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E34" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="5:7" x14ac:dyDescent="0.3">
@@ -10326,21 +10351,21 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="67" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D3" s="42">
         <v>5000000</v>
@@ -10349,46 +10374,46 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D4" s="42">
         <v>5883000</v>
       </c>
       <c r="F4" s="68" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H4" s="39"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D5" s="42">
         <v>6820000</v>
       </c>
       <c r="F5" s="69" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H5" s="39"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D6" s="64">
         <v>17703000</v>
       </c>
       <c r="F6" s="69" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H6" s="39"/>
     </row>
@@ -10397,52 +10422,52 @@
         <v>97</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D7" s="42">
         <v>5210000</v>
       </c>
       <c r="F7" s="69" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H7" s="39"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="21" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D8" s="42">
         <v>61483000</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H8" s="39"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="21" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D9" s="42">
         <v>834000</v>
       </c>
       <c r="F9" s="70" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D10" s="42">
         <v>85369000</v>
@@ -10451,10 +10476,10 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D11" s="42">
         <v>111116000</v>
@@ -10463,10 +10488,10 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D12" s="66">
         <v>500000</v>
@@ -10501,42 +10526,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="77" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
+      <c r="A2" s="78" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="78" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78" t="s">
+        <v>241</v>
+      </c>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77" t="s">
-        <v>243</v>
-      </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77" t="s">
-        <v>244</v>
-      </c>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="M3" s="3"/>
     </row>
@@ -10545,40 +10570,40 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C4" t="s">
         <v>116</v>
       </c>
       <c r="D4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G4" t="s">
         <v>247</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
+        <v>244</v>
+      </c>
+      <c r="I4" t="s">
+        <v>245</v>
+      </c>
+      <c r="J4" t="s">
+        <v>246</v>
+      </c>
+      <c r="K4" t="s">
+        <v>247</v>
+      </c>
+      <c r="L4" t="s">
         <v>248</v>
       </c>
-      <c r="F4" t="s">
+      <c r="M4" t="s">
         <v>249</v>
-      </c>
-      <c r="G4" t="s">
-        <v>250</v>
-      </c>
-      <c r="H4" t="s">
-        <v>247</v>
-      </c>
-      <c r="I4" t="s">
-        <v>248</v>
-      </c>
-      <c r="J4" t="s">
-        <v>249</v>
-      </c>
-      <c r="K4" t="s">
-        <v>250</v>
-      </c>
-      <c r="L4" t="s">
-        <v>251</v>
-      </c>
-      <c r="M4" t="s">
-        <v>252</v>
       </c>
       <c r="N4" t="s">
         <v>115</v>
@@ -10586,7 +10611,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B5">
         <v>4151.2539999999999</v>
@@ -10636,7 +10661,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B6">
         <v>3.9849999999999999</v>
@@ -10684,10 +10709,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I8" t="s">
         <v>115</v>
@@ -10698,7 +10723,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G9">
         <v>14.8</v>
@@ -10721,30 +10746,30 @@
         <v>9840</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E12" t="s">
         <v>259</v>
-      </c>
-      <c r="C12" t="s">
-        <v>260</v>
-      </c>
-      <c r="D12" t="s">
-        <v>261</v>
-      </c>
-      <c r="E12" t="s">
-        <v>262</v>
       </c>
       <c r="F12" t="s">
         <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -10752,7 +10777,7 @@
         <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C13">
         <v>12200</v>
@@ -10781,7 +10806,7 @@
         <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C14">
         <v>-19100</v>
@@ -10811,7 +10836,7 @@
         <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C15">
         <v>-6948</v>
@@ -10841,7 +10866,7 @@
         <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C16">
         <v>8500</v>
@@ -10870,7 +10895,7 @@
         <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C17">
         <v>-5796</v>
@@ -10900,7 +10925,7 @@
         <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C18">
         <v>5800</v>
